--- a/données-conso_elec.xlsx
+++ b/données-conso_elec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lantz\Documents\Econometrie\Projet_OB1_2024-2025\elec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnaud Destarac\Documents\M2 EEET\Econométrie\Projet économétrie Célec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABFB06F-6E85-4972-8F7E-E3DBCA32166A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41A31A2-C177-4829-BAB3-950EDC346CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BC769A3D-CA55-4501-911A-66BD34743340}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BC769A3D-CA55-4501-911A-66BD34743340}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -470,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3F251D-4E12-43DD-87B0-997D0941A00C}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G33"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -481,7 +481,7 @@
     <col min="7" max="7" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -504,7 +504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1990</v>
       </c>
@@ -526,8 +526,20 @@
       <c r="G2">
         <v>96.908000000000015</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="J2">
+        <f>C2*1000000000/E2</f>
+        <v>27618.978779513196</v>
+      </c>
+      <c r="K2">
+        <f>D2/(B2/100)</f>
+        <v>184.86646884272994</v>
+      </c>
+      <c r="L2">
+        <f>F2</f>
+        <v>0.96021723138651205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <f>A2+1</f>
         <v>1991</v>
@@ -550,10 +562,22 @@
       <c r="G3">
         <v>106.81699999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="J3">
+        <f t="shared" ref="J3:J33" si="0">C3*1000000000/E3</f>
+        <v>27829.616247812199</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K33" si="1">D3/(B3/100)</f>
+        <v>174.42528735632186</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L33" si="2">F3</f>
+        <v>1.166714992643747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
-        <f t="shared" ref="A4:A33" si="0">A3+1</f>
+        <f t="shared" ref="A4:A33" si="3">A3+1</f>
         <v>1992</v>
       </c>
       <c r="B4">
@@ -574,10 +598,22 @@
       <c r="G4">
         <v>109.593</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>28121.10940827637</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>173.876404494382</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>1.0760068802807772</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1993</v>
       </c>
       <c r="B5">
@@ -598,10 +634,22 @@
       <c r="G5">
         <v>111.47</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>27909.350195855593</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>173.86519944979369</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>1.0761416789114535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1994</v>
       </c>
       <c r="B6">
@@ -622,10 +670,22 @@
       <c r="G6">
         <v>111.221</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>28479.621452916133</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>171.85385656292286</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>0.92209261522398178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1995</v>
       </c>
       <c r="B7">
@@ -646,10 +706,22 @@
       <c r="G7">
         <v>108.84200000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>29042.594330945307</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>168.39309428950864</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0.98644109672988145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1996</v>
       </c>
       <c r="B8">
@@ -670,10 +742,22 @@
       <c r="G8">
         <v>120.50900000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>29356.104555150279</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>166.40625</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>1.1403056760048165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1997</v>
       </c>
       <c r="B9">
@@ -694,10 +778,22 @@
       <c r="G9">
         <v>119.084</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>30004.111154767197</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>153.4105534105534</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0.98588560199158992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1998</v>
       </c>
       <c r="B10">
@@ -718,10 +814,22 @@
       <c r="G10">
         <v>123.14699999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>30938.877342408927</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>148.33759590792837</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>1.0417245103442387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1999</v>
       </c>
       <c r="B11">
@@ -742,10 +850,22 @@
       <c r="G11">
         <v>126.93300000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>31838.132040124608</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>144.14758269720102</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0.99586147327891605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2000</v>
       </c>
       <c r="B12">
@@ -766,10 +886,22 @@
       <c r="G12">
         <v>128.72</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>32940.440857577967</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>138.04755944931162</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>0.93826339012916826</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2001</v>
       </c>
       <c r="B13">
@@ -790,10 +922,22 @@
       <c r="G13">
         <v>133.887</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>33332.556552502749</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>135.34482758620689</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>0.99811831630152958</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2002</v>
       </c>
       <c r="B14">
@@ -814,10 +958,22 @@
       <c r="G14">
         <v>132.99799999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>33453.573796450291</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>133.93719806763286</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>0.89476204395327308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2003</v>
       </c>
       <c r="B15">
@@ -838,10 +994,22 @@
       <c r="G15">
         <v>141.554</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>33547.83064389605</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>132.60236686390533</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>1.0376727140467725</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2004</v>
       </c>
       <c r="B16">
@@ -862,10 +1030,22 @@
       <c r="G16">
         <v>143.38</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>34265.324974372408</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>132.08111239860952</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>1.0648713900437856</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2005</v>
       </c>
       <c r="B17">
@@ -886,10 +1066,22 @@
       <c r="G17">
         <v>138.48300000000006</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>34657.274415587628</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>129.6769055745165</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>1.0657809123448179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2006</v>
       </c>
       <c r="B18">
@@ -910,10 +1102,22 @@
       <c r="G18">
         <v>143.32699999999991</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>35357.498194000967</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>128.28836896899136</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>1.0130321753314129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2007</v>
       </c>
       <c r="B19">
@@ -934,10 +1138,22 @@
       <c r="G19">
         <v>141.58899999999988</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>36037.168176668361</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>125.93076990955218</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>0.93272626976774442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2008</v>
       </c>
       <c r="B20">
@@ -958,10 +1174,22 @@
       <c r="G20">
         <v>152.65200000000007</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>35979.528698165886</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>120.5165668919644</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>1.0085909044603054</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2009</v>
       </c>
       <c r="B21">
@@ -982,10 +1210,22 @@
       <c r="G21">
         <v>149.03200000000004</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>34787.264719492974</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>123.10150069675205</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>1.0282372718989448</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2010</v>
       </c>
       <c r="B22">
@@ -1006,10 +1246,22 @@
       <c r="G22">
         <v>161.52000000000004</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>35312.63574260952</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>131.37768556646606</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>1.1943223779248602</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2011</v>
       </c>
       <c r="B23">
@@ -1030,10 +1282,22 @@
       <c r="G23">
         <v>145.30769823511227</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>35998.692124806548</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>138.76485058422088</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>0.85564622951124336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2012</v>
       </c>
       <c r="B24">
@@ -1054,10 +1318,22 @@
       <c r="G24">
         <v>157.47927982761976</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>35886.77373365828</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>140.20360344827589</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>1.0256410481868226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2013</v>
       </c>
       <c r="B25">
@@ -1078,10 +1354,22 @@
       <c r="G25">
         <v>165.47810550600482</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>35982.748962326674</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>147.49592097325558</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>1.1207959883855327</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2014</v>
       </c>
       <c r="B26">
@@ -1102,10 +1390,22 @@
       <c r="G26">
         <v>148.12739073882364</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>36170.997651501093</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>153.52405462184876</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>0.83396082360865642</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2015</v>
       </c>
       <c r="B27">
@@ -1126,10 +1426,22 @@
       <c r="G27">
         <v>154.57018846191906</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>36431.700416528387</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>162.40958599999999</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>0.91777336409310406</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2016</v>
       </c>
       <c r="B28">
@@ -1150,10 +1462,22 @@
       <c r="G28">
         <v>160.03819509027534</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>36648.733711360212</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>164.48625374326213</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>1.0247346406819462</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
       <c r="B29">
@@ -1174,10 +1498,22 @@
       <c r="G29">
         <v>158.14365768729999</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>37303.936874576058</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>164.1851975894092</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>0.96945064417100868</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2018</v>
       </c>
       <c r="B30">
@@ -1198,10 +1534,22 @@
       <c r="G30">
         <v>157.25663068730006</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>37784.373909455353</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>166.29944223494036</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>0.92279908946751332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2019</v>
       </c>
       <c r="B31">
@@ -1222,10 +1570,22 @@
       <c r="G31">
         <v>156.74628106990005</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>38424.719613458496</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>170.67356711119638</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="2"/>
+        <v>0.93054933265170026</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2020</v>
       </c>
       <c r="B32">
@@ -1246,10 +1606,22 @@
       <c r="G32">
         <v>158.38584850029997</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>35454.593059092433</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>180.13015659314428</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="2"/>
+        <v>0.83109654763045648</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2021</v>
       </c>
       <c r="B33">
@@ -1269,6 +1641,18 @@
       </c>
       <c r="G33">
         <v>166.67193592958398</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>37763.984076331093</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>181.38111789572568</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>1.0237603110816549</v>
       </c>
     </row>
   </sheetData>

--- a/données-conso_elec.xlsx
+++ b/données-conso_elec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnaud Destarac\Documents\M2 EEET\Econométrie\Projet économétrie Célec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41A31A2-C177-4829-BAB3-950EDC346CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD22A467-767F-4F2A-B813-746DD8CFC083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BC769A3D-CA55-4501-911A-66BD34743340}"/>
   </bookViews>
@@ -472,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3F251D-4E12-43DD-87B0-997D0941A00C}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A33"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
